--- a/biology/Botanique/Exposition_internationale_de_jardins_de_la_baie_de_Suncheon/Exposition_internationale_de_jardins_de_la_baie_de_Suncheon.xlsx
+++ b/biology/Botanique/Exposition_internationale_de_jardins_de_la_baie_de_Suncheon/Exposition_internationale_de_jardins_de_la_baie_de_Suncheon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L’Exposition internationale des jardins de la baie de Suncheon 2013 sera ouverte dans la ville de Suncheon dans la région de Jeollanam-do en Corée du Sud. Cette exposition a été reconnue et confirmée par l’Association internationale des producteurs d’horticulture (AIPH) le 16 septembre 2009 et ce sera la première fois que cette exposition internationale de jardins ouvrira ses portes en Corée. 
 </t>
@@ -511,7 +523,9 @@
           <t>Introduction</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Titre : Exposition internationale des jardins de la baie de Suncheon 2013
 Thème: Le jardin de la Terre, la baie de Suncheon
@@ -519,9 +533,43 @@
 Lieu de l’Exposition: 1 520 000 m2 autour de la baie de Suncheon
 Durée de l’Exposition : 20 avril 2013 – 20 octobre 2013 (pendant six mois)
 Installations principales sur le site de l’Exposition : Les Jardins du Monde, les Jardins de participation, le Jardin des fleurs, le Jardin forestier, le Jardin aquatique, le Jardin des herbes médicinales de la médecine orientale, le Jardin botanique, le Centre international des marécages, le site de l’aménagement des cours d’eau, etc.
-Nombre de participants (estimation) : 4 860 000 personnes
-Contenu principal
-Jardin du Monde : Le jardin avec 10 pays d’Europe, d’Amérique et d’Asie.
+Nombre de participants (estimation) : 4 860 000 personnes</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Exposition_internationale_de_jardins_de_la_baie_de_Suncheon</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Exposition_internationale_de_jardins_de_la_baie_de_Suncheon</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Introduction</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Contenu principal</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Jardin du Monde : Le jardin avec 10 pays d’Europe, d’Amérique et d’Asie.
 Jardin de participation: Composé d’une trentaine de jardins différents avec la participation d’artistes, d’habitants et d’entreprises.
 Jardin des fleurs : Avec le jardin des quatre saisons, le sentier des fleurs, le pont des fleurs et la vallée des fleurs.
 Jardin aquatique et Jardin forestier : Le jardin aquatique est composé d’un lac, d’un étang, d’une vallée de marécages et les jardins forestiers sont situés partout sur le site.
